--- a/biology/Zoologie/Carollia/Carollia.xlsx
+++ b/biology/Zoologie/Carollia/Carollia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carollia est un genre de chauves-souris de la famille des Phyllostomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 février 2024) :
 Carollia benkeithi Solari &amp; Baker, 2006
 Carollia brevicaudum (Schinz, 1821) - Carollia à queue courte
 Carollia castanea H.Allen, 1890
@@ -549,10 +563,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carollia Gray, 1838[1],[2].
-Carollia a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Carollia Gray, 1838,.
+Carollia a pour synonymes :
 Hemiderma Gervais, 1855
 Rhinops Gray, 1866</t>
         </is>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John Edward Gray, « A revision of the genera of bats (Vespertilionidae), and the description of some new genera and species », Magazine of zoology and botany, vol. 2,‎ 1838, p. 483-505 (OCLC 1756457, lire en ligne)</t>
         </is>
